--- a/5204_energie.xlsx
+++ b/5204_energie.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktzuerich.sharepoint.com/sites/AAD-365-M-APP-G999999-O002595/Freigegebene Dokumente/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAA2757\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{E43E4CDC-B4C7-4AC4-B722-CF1EDB52C68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FEC5ECA-FF0D-4141-A48F-9720E395878F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578EB2E-FBA8-44F4-8291-62E50D75AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{762D4C5C-BBF7-4461-949E-EEA44E8F9082}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{762D4C5C-BBF7-4461-949E-EEA44E8F9082}"/>
   </bookViews>
   <sheets>
     <sheet name="Primärdaten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primärdaten!$C$2:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primärdaten!$C$2:$O$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,9 +55,9 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{10452E7C-FCD1-4B4E-8526-92FAFC5DC3CC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     0: fehlt
 1: vorhanden
 2: in Abklärung</t>
@@ -65,25 +65,25 @@
     </comment>
     <comment ref="A7" authorId="1" shapeId="0" xr:uid="{751FC89E-5675-4A4D-820D-BEDED8E4AD5A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     MB klärt ab (Zahlen S.2, Tabelle 1)</t>
       </text>
     </comment>
     <comment ref="A8" authorId="2" shapeId="0" xr:uid="{A4CB642A-8533-416F-A975-E914AC6F2A47}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     Auswertung, Vorgehen klar</t>
       </text>
     </comment>
     <comment ref="A21" authorId="3" shapeId="0" xr:uid="{88F0CFC8-5572-4738-9C78-8DBCC163C5EE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     Elcom, MB zeigt LvF</t>
       </text>
     </comment>
@@ -113,48 +113,38 @@
     </comment>
     <comment ref="C25" authorId="5" shapeId="0" xr:uid="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     CHAOS!
-Reply:
+Antwort:
     Angaben Werdhölzli eigentlich gut, wurden aber falsch eingetragen. Angaben EKZ ohne Zahlen Kältenutzung</t>
       </text>
     </comment>
     <comment ref="D28" authorId="4" shapeId="0" xr:uid="{5BA3F2A8-85C2-4521-A34E-64A1F32D89BD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t/>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="C42" authorId="6" shapeId="0" xr:uid="{2B5D2A82-136D-479E-8B9F-5786D6EDBABE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     2002&amp;2014 - Wie sieht das zukünftig aus?</t>
       </text>
     </comment>
     <comment ref="C43" authorId="7" shapeId="0" xr:uid="{70F9A51E-CB40-4B79-B0E6-169383C7FEC8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     2002&amp;2014 - Wie sieht das zukünftig aus?</t>
       </text>
     </comment>
     <comment ref="A58" authorId="8" shapeId="0" xr:uid="{D075806A-56E2-43D3-B1A7-7C10F9EF79FA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     muss nochmals angeschaut werden</t>
       </text>
     </comment>
@@ -163,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="232">
   <si>
     <t>STATUS</t>
   </si>
@@ -333,15 +323,9 @@
     <t>Pronovo (OGD)? Nur Strom</t>
   </si>
   <si>
-    <t xml:space="preserve">unterschiedliche Excel </t>
-  </si>
-  <si>
     <t>Energieversorger</t>
   </si>
   <si>
-    <t>...\energy\data\input\Kantonale Energiestatistik.xlsx</t>
-  </si>
-  <si>
     <t>gas_inp_gem.csv</t>
   </si>
   <si>
@@ -351,9 +335,6 @@
     <t>einzelne Betreiber</t>
   </si>
   <si>
-    <t>Gasversorger Kanton Zürich</t>
-  </si>
-  <si>
     <t>Strom</t>
   </si>
   <si>
@@ -588,9 +569,6 @@
     <t>OpenData</t>
   </si>
   <si>
-    <t>Daten über alle Jahre (sauber)</t>
-  </si>
-  <si>
     <t>jährlich</t>
   </si>
   <si>
@@ -844,13 +822,40 @@
   </si>
   <si>
     <t>Kumuliert pro Gemeinde</t>
+  </si>
+  <si>
+    <t>EP_1</t>
+  </si>
+  <si>
+    <t>EP_2</t>
+  </si>
+  <si>
+    <t>EP_3</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogd115_gest_bilanz.csv </t>
+  </si>
+  <si>
+    <t>data/input/</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>bev_gem.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -963,7 +968,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -983,9 +988,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1007,6 +1009,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{898B9B1E-21E3-427E-A1E4-D0C9B9A700EA}"/>
@@ -1384,16 +1390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB9810-378A-48AC-9E21-C59A3A4A45B2}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.28515625" customWidth="1"/>
@@ -1402,51 +1408,54 @@
     <col min="9" max="10" width="23.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.7109375" customWidth="1"/>
+    <col min="13" max="14" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1474,11 +1483,12 @@
       <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1512,11 +1522,12 @@
       <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1546,11 +1557,12 @@
       <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1580,11 +1592,12 @@
       <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1614,11 +1627,12 @@
       <c r="M6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1644,11 +1658,12 @@
       <c r="M7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1678,11 +1693,12 @@
       <c r="M8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1710,11 +1726,12 @@
       <c r="M9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1742,11 +1759,12 @@
       <c r="M10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1776,11 +1794,12 @@
       <c r="M11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1808,11 +1827,12 @@
       <c r="M12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1840,11 +1860,12 @@
       <c r="M13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1872,11 +1893,12 @@
       <c r="M14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1904,24 +1926,31 @@
       <c r="M15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>228</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1933,23 +1962,23 @@
         <v>38</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="2" t="s">
+      <c r="M16" s="31"/>
+      <c r="O16" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1968,20 +1997,23 @@
       <c r="M17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="6"/>
+      <c r="O17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2000,11 +2032,12 @@
       <c r="M18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="6"/>
+      <c r="O18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2034,32 +2067,35 @@
       <c r="M19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="7"/>
+      <c r="O19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
@@ -2068,68 +2104,69 @@
         <v>2004</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="M20" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="28">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
         <v>2</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="4">
         <v>2000</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="25.5">
+    <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2137,32 +2174,33 @@
         <v>38</v>
       </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" s="2" t="s">
+      <c r="M22" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="29"/>
+      <c r="O22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J23" s="2">
         <v>2001</v>
@@ -2172,31 +2210,32 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J24">
         <v>1996</v>
@@ -2206,124 +2245,128 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>1</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J25">
         <v>2012</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -2332,483 +2375,497 @@
         <v>2001</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="G35" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="I35" t="s">
         <v>110</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I35" t="s">
-        <v>113</v>
       </c>
       <c r="J35" s="2">
         <v>1982</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="G36" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="32" t="s">
+      <c r="H36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" t="s">
         <v>110</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>113</v>
       </c>
       <c r="J36" s="2">
         <v>1982</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="G37" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E37" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="H37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" t="s">
         <v>110</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" t="s">
-        <v>113</v>
       </c>
       <c r="J37" s="2">
         <v>1982</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="N38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="N39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>33</v>
@@ -2817,30 +2874,31 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="13"/>
+      <c r="O42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>33</v>
@@ -2849,42 +2907,43 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="14" t="s">
@@ -2892,345 +2951,360 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>227</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>231</v>
+      </c>
       <c r="H45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="N45" s="2" t="s">
+      <c r="M45" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="25.5">
+    <row r="46" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="14"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="M46" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N46" s="15"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L47" s="14"/>
-      <c r="M47" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N47" s="14" t="s">
+      <c r="M47" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N47" s="31"/>
+      <c r="O47" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="14"/>
-      <c r="M48" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N48" s="14" t="s">
+      <c r="M48" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N48" s="31"/>
+      <c r="O48" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L49" s="14"/>
-      <c r="M49" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N49" s="14" t="s">
+      <c r="M49" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="31"/>
+      <c r="O49" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N50" s="14" t="s">
+      <c r="M50" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N50" s="31"/>
+      <c r="O50" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="14"/>
-      <c r="M51" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N51" s="14" t="s">
+      <c r="M51" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="31"/>
+      <c r="O51" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L52" s="14"/>
-      <c r="M52" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N52" s="14" t="s">
+      <c r="M52" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" s="31"/>
+      <c r="O52" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="14" t="s">
         <v>38</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="N53" s="14" t="s">
+      <c r="M53" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" s="31"/>
+      <c r="O53" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>36</v>
@@ -3239,10 +3313,10 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="14" t="s">
@@ -3250,19 +3324,20 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="N54" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
@@ -3271,10 +3346,10 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="14" t="s">
@@ -3282,103 +3357,107 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="N55" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="16" t="s">
         <v>38</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="N56" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14">
+        <v>137</v>
+      </c>
+      <c r="N57" s="5"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="N58" s="4"/>
+      <c r="M58" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="N58" s="28"/>
+      <c r="O58" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3392,30 +3471,29 @@
     <hyperlink ref="M23" r:id="rId8" xr:uid="{AEB79C09-FCC9-4F52-8D07-49C1E1E5ACED}"/>
     <hyperlink ref="M57" r:id="rId9" xr:uid="{38CFFBAF-FFBD-4069-B3FF-F36834E72181}"/>
     <hyperlink ref="M54:M55" r:id="rId10" display="Kenngrössen zur Entwicklung der Treibhausgasemissionen" xr:uid="{D0BADDF0-5F8B-4343-B4D0-E9BD8FF16C72}"/>
-    <hyperlink ref="M16" r:id="rId11" xr:uid="{B57482EE-EE4B-4A66-B62C-C463BE55D733}"/>
-    <hyperlink ref="M17" r:id="rId12" xr:uid="{63DFF018-3C6A-429F-99FB-8DC2E1B85652}"/>
-    <hyperlink ref="M18" r:id="rId13" xr:uid="{ED3B1B6A-6DA7-4D01-BECC-71E30AC376EF}"/>
-    <hyperlink ref="M46" r:id="rId14" xr:uid="{B15C12E5-CDF2-43F1-B4DC-F52B4BD2C32F}"/>
-    <hyperlink ref="M58" r:id="rId15" xr:uid="{E100B4D0-0355-4207-8EC4-4A4435BF99A9}"/>
-    <hyperlink ref="M38:M39" r:id="rId16" display="Marco Calderoni und Opendata (WFS)" xr:uid="{E8F83467-722F-406B-8C6D-565320B053F6}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{72B622D0-B388-414F-9BEC-288A6AAEAFB4}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{D7442028-F5A5-4756-8984-595615E53B9D}"/>
-    <hyperlink ref="M45" r:id="rId19" xr:uid="{02078403-27EB-43DD-BFD2-AD19040AED53}"/>
-    <hyperlink ref="F40" r:id="rId20" xr:uid="{5FC75C3D-3509-4E0C-BE14-7042E5DA5CEC}"/>
-    <hyperlink ref="F36" r:id="rId21" xr:uid="{A0802882-5FF6-461C-8DEE-10756FF10B4C}"/>
-    <hyperlink ref="F41" r:id="rId22" xr:uid="{EA122736-F63C-498A-B4A4-2016104537E4}"/>
-    <hyperlink ref="G35" r:id="rId23" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{9E986CE8-629C-4AC8-8928-FA9C6B001058}"/>
-    <hyperlink ref="G36" r:id="rId24" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{6AA8816A-3EDB-445C-8C90-2A8298DB3450}"/>
-    <hyperlink ref="G37" r:id="rId25" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{46EBB936-2987-449F-8930-90DBB0CE48DB}"/>
-    <hyperlink ref="F37" r:id="rId26" xr:uid="{0FFC689C-CCFA-48C6-9DE4-5E4E98C897C7}"/>
-    <hyperlink ref="F35" r:id="rId27" xr:uid="{80412B88-A935-4A8B-814C-BA8485947427}"/>
-    <hyperlink ref="M47" r:id="rId28" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6356ABE9-ACA9-4A3C-B24F-441FEEF9A56C}"/>
-    <hyperlink ref="M48:M53" r:id="rId29" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6EA233B2-C086-4D0B-B3C8-4D7525095166}"/>
-    <hyperlink ref="F47" r:id="rId30" xr:uid="{CA72775A-7743-4664-B10D-E96514AB467D}"/>
-    <hyperlink ref="F48:F53" r:id="rId31" display="https://www.uvek-gis.admin.ch/BFE/ogd/115/" xr:uid="{E38C50CC-86BE-43C1-8B62-F4872BED6E0F}"/>
+    <hyperlink ref="M17" r:id="rId11" xr:uid="{63DFF018-3C6A-429F-99FB-8DC2E1B85652}"/>
+    <hyperlink ref="M18" r:id="rId12" xr:uid="{ED3B1B6A-6DA7-4D01-BECC-71E30AC376EF}"/>
+    <hyperlink ref="M46" r:id="rId13" xr:uid="{B15C12E5-CDF2-43F1-B4DC-F52B4BD2C32F}"/>
+    <hyperlink ref="M58" r:id="rId14" xr:uid="{E100B4D0-0355-4207-8EC4-4A4435BF99A9}"/>
+    <hyperlink ref="M38:M39" r:id="rId15" display="Marco Calderoni und Opendata (WFS)" xr:uid="{E8F83467-722F-406B-8C6D-565320B053F6}"/>
+    <hyperlink ref="M42" r:id="rId16" xr:uid="{72B622D0-B388-414F-9BEC-288A6AAEAFB4}"/>
+    <hyperlink ref="M43" r:id="rId17" xr:uid="{D7442028-F5A5-4756-8984-595615E53B9D}"/>
+    <hyperlink ref="F40" r:id="rId18" xr:uid="{5FC75C3D-3509-4E0C-BE14-7042E5DA5CEC}"/>
+    <hyperlink ref="F36" r:id="rId19" xr:uid="{A0802882-5FF6-461C-8DEE-10756FF10B4C}"/>
+    <hyperlink ref="F41" r:id="rId20" xr:uid="{EA122736-F63C-498A-B4A4-2016104537E4}"/>
+    <hyperlink ref="G35" r:id="rId21" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{9E986CE8-629C-4AC8-8928-FA9C6B001058}"/>
+    <hyperlink ref="G36" r:id="rId22" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{6AA8816A-3EDB-445C-8C90-2A8298DB3450}"/>
+    <hyperlink ref="G37" r:id="rId23" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{46EBB936-2987-449F-8930-90DBB0CE48DB}"/>
+    <hyperlink ref="F37" r:id="rId24" xr:uid="{0FFC689C-CCFA-48C6-9DE4-5E4E98C897C7}"/>
+    <hyperlink ref="F35" r:id="rId25" xr:uid="{80412B88-A935-4A8B-814C-BA8485947427}"/>
+    <hyperlink ref="M47" r:id="rId26" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6356ABE9-ACA9-4A3C-B24F-441FEEF9A56C}"/>
+    <hyperlink ref="M48:M53" r:id="rId27" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6EA233B2-C086-4D0B-B3C8-4D7525095166}"/>
+    <hyperlink ref="F47" r:id="rId28" xr:uid="{CA72775A-7743-4664-B10D-E96514AB467D}"/>
+    <hyperlink ref="F48:F53" r:id="rId29" display="https://www.uvek-gis.admin.ch/BFE/ogd/115/" xr:uid="{E38C50CC-86BE-43C1-8B62-F4872BED6E0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -3427,7 +3505,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -3436,15 +3514,15 @@
     <col min="6" max="6" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -3453,430 +3531,430 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19" t="s">
+      <c r="C17" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="C18" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="24" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="18" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="26" t="s">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="C23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4044,13 +4122,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75BE937-EBF6-4170-B538-1E8B2B85B134}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75BE937-EBF6-4170-B538-1E8B2B85B134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D8BDFB6-B770-42D6-9249-7C5CBD931C06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D8BDFB6-B770-42D6-9249-7C5CBD931C06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9c7b98-32f8-43f6-9aa8-3c6a9b4069ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483E1CA-4503-4AF0-84CC-8A7B2CC91290}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483E1CA-4503-4AF0-84CC-8A7B2CC91290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5204_energie.xlsx
+++ b/5204_energie.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAA2757\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578EB2E-FBA8-44F4-8291-62E50D75AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142AD403-A847-41FE-BF6B-077C6AD6B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{762D4C5C-BBF7-4461-949E-EEA44E8F9082}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{762D4C5C-BBF7-4461-949E-EEA44E8F9082}"/>
   </bookViews>
   <sheets>
     <sheet name="Primärdaten" sheetId="1" r:id="rId1"/>
     <sheet name="Auswertungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primärdaten!$C$2:$O$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primärdaten!$D$2:$O$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -87,7 +87,7 @@
     Elcom, MB zeigt LvF</t>
       </text>
     </comment>
-    <comment ref="H24" authorId="4" shapeId="0" xr:uid="{44F5A9E6-E337-4A11-BB54-208319D746F4}">
+    <comment ref="I24" authorId="4" shapeId="0" xr:uid="{44F5A9E6-E337-4A11-BB54-208319D746F4}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="5" shapeId="0" xr:uid="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
+    <comment ref="D25" authorId="5" shapeId="0" xr:uid="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -121,10 +121,10 @@
     Angaben Werdhölzli eigentlich gut, wurden aber falsch eingetragen. Angaben EKZ ohne Zahlen Kältenutzung</t>
       </text>
     </comment>
-    <comment ref="D28" authorId="4" shapeId="0" xr:uid="{5BA3F2A8-85C2-4521-A34E-64A1F32D89BD}">
+    <comment ref="E28" authorId="4" shapeId="0" xr:uid="{5BA3F2A8-85C2-4521-A34E-64A1F32D89BD}">
       <text/>
     </comment>
-    <comment ref="C42" authorId="6" shapeId="0" xr:uid="{2B5D2A82-136D-479E-8B9F-5786D6EDBABE}">
+    <comment ref="D42" authorId="6" shapeId="0" xr:uid="{2B5D2A82-136D-479E-8B9F-5786D6EDBABE}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -132,7 +132,7 @@
     2002&amp;2014 - Wie sieht das zukünftig aus?</t>
       </text>
     </comment>
-    <comment ref="C43" authorId="7" shapeId="0" xr:uid="{70F9A51E-CB40-4B79-B0E6-169383C7FEC8}">
+    <comment ref="D43" authorId="7" shapeId="0" xr:uid="{70F9A51E-CB40-4B79-B0E6-169383C7FEC8}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="234">
   <si>
     <t>STATUS</t>
   </si>
@@ -849,13 +849,19 @@
   </si>
   <si>
     <t>bev_gem.csv</t>
+  </si>
+  <si>
+    <t>INDICATOR_Name</t>
+  </si>
+  <si>
+    <t>Indikator W11 GEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -884,10 +890,6 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -968,7 +970,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -983,22 +985,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1007,12 +1008,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{898B9B1E-21E3-427E-A1E4-D0C9B9A700EA}"/>
@@ -1370,16 +1370,16 @@
   <threadedComment ref="A21" dT="2025-11-10T08:24:55.10" personId="{914C5073-A724-4739-A733-56F75C26B4AC}" id="{88F0CFC8-5572-4738-9C78-8DBCC163C5EE}">
     <text>Elcom, MB zeigt LvF</text>
   </threadedComment>
-  <threadedComment ref="C25" dT="2024-09-25T09:58:14.65" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
+  <threadedComment ref="D25" dT="2024-09-25T09:58:14.65" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
     <text>CHAOS!</text>
   </threadedComment>
-  <threadedComment ref="C25" dT="2024-09-25T10:08:04.97" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{21489588-2AF7-4DE3-B48B-293C55C0DAC8}" parentId="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
+  <threadedComment ref="D25" dT="2024-09-25T10:08:04.97" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{21489588-2AF7-4DE3-B48B-293C55C0DAC8}" parentId="{0F5CB4A5-41AE-4D6C-8B8C-C3556B407E9E}">
     <text>Angaben Werdhölzli eigentlich gut, wurden aber falsch eingetragen. Angaben EKZ ohne Zahlen Kältenutzung</text>
   </threadedComment>
-  <threadedComment ref="C42" dT="2024-09-26T07:26:46.94" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{2B5D2A82-136D-479E-8B9F-5786D6EDBABE}">
+  <threadedComment ref="D42" dT="2024-09-26T07:26:46.94" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{2B5D2A82-136D-479E-8B9F-5786D6EDBABE}">
     <text>2002&amp;2014 - Wie sieht das zukünftig aus?</text>
   </threadedComment>
-  <threadedComment ref="C43" dT="2024-09-26T07:26:46.94" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{70F9A51E-CB40-4B79-B0E6-169383C7FEC8}">
+  <threadedComment ref="D43" dT="2024-09-26T07:26:46.94" personId="{88A73D63-092E-484B-A5D9-9B022DFDAFC6}" id="{70F9A51E-CB40-4B79-B0E6-169383C7FEC8}">
     <text>2002&amp;2014 - Wie sieht das zukünftig aus?</text>
   </threadedComment>
   <threadedComment ref="A58" dT="2025-11-10T08:26:06.95" personId="{914C5073-A724-4739-A733-56F75C26B4AC}" id="{D075806A-56E2-43D3-B1A7-7C10F9EF79FA}">
@@ -1390,69 +1390,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB9810-378A-48AC-9E21-C59A3A4A45B2}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1460,30 +1461,30 @@
         <v>13</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,36 +1494,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>2005</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1532,32 +1533,32 @@
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1567,32 +1568,32 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1602,32 +1603,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1637,28 +1638,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1668,32 +1669,32 @@
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1990</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="5"/>
       <c r="O8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1703,30 +1704,30 @@
         <v>2</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="5"/>
       <c r="O9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1736,30 +1737,30 @@
         <v>2</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="5"/>
       <c r="O10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1769,32 +1770,32 @@
         <v>2</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="5"/>
       <c r="O11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1804,30 +1805,30 @@
         <v>2</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="5"/>
       <c r="O12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1837,30 +1838,30 @@
         <v>2</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="5"/>
       <c r="O13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1870,30 +1871,30 @@
         <v>2</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="5"/>
       <c r="O14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1903,30 +1904,30 @@
         <v>2</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="2"/>
+      <c r="N15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="5"/>
       <c r="O15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1938,31 +1939,34 @@
       <c r="B16" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="31"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1974,30 +1978,30 @@
       <c r="B17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="6"/>
       <c r="O17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2009,30 +2013,30 @@
       <c r="B18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="6"/>
       <c r="O18" s="2" t="s">
         <v>48</v>
       </c>
@@ -2042,32 +2046,32 @@
         <v>1</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="2"/>
+      <c r="N19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="7"/>
       <c r="O19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2079,72 +2083,73 @@
       <c r="B20" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>2004</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>2</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="J21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2000</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" t="s">
         <v>64</v>
       </c>
       <c r="O21" s="4" t="s">
@@ -2156,28 +2161,28 @@
         <v>1</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="N22" s="29"/>
       <c r="O22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2187,32 +2192,32 @@
         <v>1</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>2001</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="5"/>
       <c r="O23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2222,67 +2227,67 @@
         <v>73</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1996</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N24" s="5"/>
       <c r="O24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2012</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="2"/>
+      <c r="N25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N25" s="10"/>
       <c r="O25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2292,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="2"/>
+      <c r="N26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="12"/>
       <c r="O26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2323,28 +2328,28 @@
         <v>1</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N27" s="12"/>
       <c r="O27" s="2" t="s">
         <v>29</v>
       </c>
@@ -2354,34 +2359,34 @@
         <v>1</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>25</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2001</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
         <v>29</v>
       </c>
@@ -2391,32 +2396,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2426,32 +2431,32 @@
         <v>1</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2461,32 +2466,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2496,32 +2501,32 @@
         <v>1</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2531,32 +2536,32 @@
         <v>1</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2564,30 +2569,30 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
         <v>29</v>
       </c>
@@ -2597,38 +2602,38 @@
         <v>1</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="G35" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="H35" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>1982</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="2"/>
+      <c r="N35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N35" s="5"/>
       <c r="O35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2638,38 +2643,38 @@
         <v>1</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="G36" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="H36" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>1982</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="2"/>
+      <c r="N36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N36" s="5"/>
       <c r="O36" s="2" t="s">
         <v>48</v>
       </c>
@@ -2679,38 +2684,38 @@
         <v>1</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="G37" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>110</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>1982</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="2"/>
+      <c r="N37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N37" s="5"/>
       <c r="O37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2720,32 +2725,32 @@
         <v>1</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="2"/>
+      <c r="N38" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N38" s="13"/>
       <c r="O38" s="2" t="s">
         <v>29</v>
       </c>
@@ -2755,32 +2760,32 @@
         <v>1</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="2"/>
+      <c r="N39" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N39" s="13"/>
       <c r="O39" s="2" t="s">
         <v>29</v>
       </c>
@@ -2790,34 +2795,34 @@
         <v>1</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="G40" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>29</v>
       </c>
@@ -2827,34 +2832,34 @@
         <v>1</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="G41" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
         <v>29</v>
       </c>
@@ -2864,30 +2869,30 @@
         <v>125</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="2"/>
+      <c r="N42" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N42" s="13"/>
       <c r="O42" s="2" t="s">
         <v>29</v>
       </c>
@@ -2897,30 +2902,30 @@
         <v>130</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="2"/>
+      <c r="N43" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="N43" s="13"/>
       <c r="O43" s="2" t="s">
         <v>29</v>
       </c>
@@ -2930,30 +2935,30 @@
         <v>1</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="2"/>
+      <c r="N44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="5"/>
       <c r="O44" s="2" t="s">
         <v>29</v>
       </c>
@@ -2965,31 +2970,32 @@
       <c r="B45" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="E45" t="s">
         <v>227</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="H45" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="2"/>
+      <c r="L45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="33" t="s">
+      <c r="M45" s="2"/>
+      <c r="N45" t="s">
         <v>139</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -3001,28 +3007,28 @@
         <v>1</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="15" t="s">
+      <c r="K46" s="8"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3030,37 +3036,37 @@
         <v>1</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="G47" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="J47" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="13"/>
+      <c r="L47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="31" t="s">
+      <c r="M47" s="13"/>
+      <c r="N47" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N47" s="31"/>
-      <c r="O47" s="14" t="s">
+      <c r="O47" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3069,37 +3075,37 @@
         <v>1</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="G48" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="H48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="J48" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="13"/>
+      <c r="L48" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="31" t="s">
+      <c r="M48" s="13"/>
+      <c r="N48" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N48" s="31"/>
-      <c r="O48" s="14" t="s">
+      <c r="O48" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3108,37 +3114,37 @@
         <v>1</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="G49" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H49" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="J49" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="13"/>
+      <c r="L49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="31" t="s">
+      <c r="M49" s="13"/>
+      <c r="N49" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N49" s="31"/>
-      <c r="O49" s="14" t="s">
+      <c r="O49" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3147,37 +3153,37 @@
         <v>1</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="G50" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="H50" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="2"/>
+      <c r="N50" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N50" s="31"/>
-      <c r="O50" s="14" t="s">
+      <c r="O50" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3186,37 +3192,37 @@
         <v>1</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="G51" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="2"/>
+      <c r="L51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="31" t="s">
+      <c r="M51" s="13"/>
+      <c r="N51" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N51" s="31"/>
-      <c r="O51" s="14" t="s">
+      <c r="O51" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3225,37 +3231,37 @@
         <v>1</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="G52" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="H52" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="2"/>
+      <c r="L52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="31" t="s">
+      <c r="M52" s="13"/>
+      <c r="N52" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N52" s="31"/>
-      <c r="O52" s="14" t="s">
+      <c r="O52" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3264,37 +3270,37 @@
         <v>1</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="G53" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="2"/>
+      <c r="L53" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="31" t="s">
+      <c r="M53" s="2"/>
+      <c r="N53" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N53" s="31"/>
-      <c r="O53" s="14" t="s">
+      <c r="O53" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3303,31 +3309,31 @@
         <v>1</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="2"/>
+      <c r="N54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="14" t="s">
+      <c r="O54" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3336,31 +3342,31 @@
         <v>1</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="2"/>
+      <c r="L55" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="2"/>
+      <c r="N55" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="14" t="s">
+      <c r="O55" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3369,31 +3375,31 @@
         <v>2</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="16" t="s">
+      <c r="O56" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3402,30 +3408,30 @@
         <v>1</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="2"/>
+      <c r="N57" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N57" s="5"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3433,63 +3439,69 @@
         <v>2</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="28" t="s">
+      <c r="M58" s="4"/>
+      <c r="N58" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="N58" s="28"/>
       <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{5A562F10-F726-48EC-8939-D56541675585}"/>
-    <hyperlink ref="M9:M11" r:id="rId2" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{F69ACD9D-FB9B-4558-8835-55EF129DAE13}"/>
-    <hyperlink ref="M12" r:id="rId3" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{7F6AB912-B2A4-40B0-81DC-1D117A8F0543}"/>
-    <hyperlink ref="M35:M37" r:id="rId4" display="OpenData - WFS" xr:uid="{1C30F140-7370-413E-875B-EB2BD0BC4CD3}"/>
-    <hyperlink ref="M13:M15" r:id="rId5" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{E9964E4E-47D8-477E-834C-5241178C253D}"/>
-    <hyperlink ref="M44" r:id="rId6" xr:uid="{B2794EDC-0012-49F0-A879-79BEADC7D4CB}"/>
-    <hyperlink ref="M22" r:id="rId7" xr:uid="{C74D67B9-941D-463C-83B2-000511A4C8EA}"/>
-    <hyperlink ref="M23" r:id="rId8" xr:uid="{AEB79C09-FCC9-4F52-8D07-49C1E1E5ACED}"/>
-    <hyperlink ref="M57" r:id="rId9" xr:uid="{38CFFBAF-FFBD-4069-B3FF-F36834E72181}"/>
-    <hyperlink ref="M54:M55" r:id="rId10" display="Kenngrössen zur Entwicklung der Treibhausgasemissionen" xr:uid="{D0BADDF0-5F8B-4343-B4D0-E9BD8FF16C72}"/>
-    <hyperlink ref="M17" r:id="rId11" xr:uid="{63DFF018-3C6A-429F-99FB-8DC2E1B85652}"/>
-    <hyperlink ref="M18" r:id="rId12" xr:uid="{ED3B1B6A-6DA7-4D01-BECC-71E30AC376EF}"/>
-    <hyperlink ref="M46" r:id="rId13" xr:uid="{B15C12E5-CDF2-43F1-B4DC-F52B4BD2C32F}"/>
-    <hyperlink ref="M58" r:id="rId14" xr:uid="{E100B4D0-0355-4207-8EC4-4A4435BF99A9}"/>
-    <hyperlink ref="M38:M39" r:id="rId15" display="Marco Calderoni und Opendata (WFS)" xr:uid="{E8F83467-722F-406B-8C6D-565320B053F6}"/>
-    <hyperlink ref="M42" r:id="rId16" xr:uid="{72B622D0-B388-414F-9BEC-288A6AAEAFB4}"/>
-    <hyperlink ref="M43" r:id="rId17" xr:uid="{D7442028-F5A5-4756-8984-595615E53B9D}"/>
-    <hyperlink ref="F40" r:id="rId18" xr:uid="{5FC75C3D-3509-4E0C-BE14-7042E5DA5CEC}"/>
-    <hyperlink ref="F36" r:id="rId19" xr:uid="{A0802882-5FF6-461C-8DEE-10756FF10B4C}"/>
-    <hyperlink ref="F41" r:id="rId20" xr:uid="{EA122736-F63C-498A-B4A4-2016104537E4}"/>
-    <hyperlink ref="G35" r:id="rId21" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{9E986CE8-629C-4AC8-8928-FA9C6B001058}"/>
-    <hyperlink ref="G36" r:id="rId22" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{6AA8816A-3EDB-445C-8C90-2A8298DB3450}"/>
-    <hyperlink ref="G37" r:id="rId23" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{46EBB936-2987-449F-8930-90DBB0CE48DB}"/>
-    <hyperlink ref="F37" r:id="rId24" xr:uid="{0FFC689C-CCFA-48C6-9DE4-5E4E98C897C7}"/>
-    <hyperlink ref="F35" r:id="rId25" xr:uid="{80412B88-A935-4A8B-814C-BA8485947427}"/>
-    <hyperlink ref="M47" r:id="rId26" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6356ABE9-ACA9-4A3C-B24F-441FEEF9A56C}"/>
-    <hyperlink ref="M48:M53" r:id="rId27" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6EA233B2-C086-4D0B-B3C8-4D7525095166}"/>
-    <hyperlink ref="F47" r:id="rId28" xr:uid="{CA72775A-7743-4664-B10D-E96514AB467D}"/>
-    <hyperlink ref="F48:F53" r:id="rId29" display="https://www.uvek-gis.admin.ch/BFE/ogd/115/" xr:uid="{E38C50CC-86BE-43C1-8B62-F4872BED6E0F}"/>
+    <hyperlink ref="N8" r:id="rId1" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{5A562F10-F726-48EC-8939-D56541675585}"/>
+    <hyperlink ref="N9:N11" r:id="rId2" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{F69ACD9D-FB9B-4558-8835-55EF129DAE13}"/>
+    <hyperlink ref="N12" r:id="rId3" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{7F6AB912-B2A4-40B0-81DC-1D117A8F0543}"/>
+    <hyperlink ref="N35:N37" r:id="rId4" display="OpenData - WFS" xr:uid="{1C30F140-7370-413E-875B-EB2BD0BC4CD3}"/>
+    <hyperlink ref="N13:N15" r:id="rId5" display="Schweizerische Statistik der erneuerbaren Energien (Anhang E)" xr:uid="{E9964E4E-47D8-477E-834C-5241178C253D}"/>
+    <hyperlink ref="N44" r:id="rId6" xr:uid="{B2794EDC-0012-49F0-A879-79BEADC7D4CB}"/>
+    <hyperlink ref="N22" r:id="rId7" xr:uid="{C74D67B9-941D-463C-83B2-000511A4C8EA}"/>
+    <hyperlink ref="N23" r:id="rId8" xr:uid="{AEB79C09-FCC9-4F52-8D07-49C1E1E5ACED}"/>
+    <hyperlink ref="N57" r:id="rId9" xr:uid="{38CFFBAF-FFBD-4069-B3FF-F36834E72181}"/>
+    <hyperlink ref="N54:N55" r:id="rId10" display="Kenngrössen zur Entwicklung der Treibhausgasemissionen" xr:uid="{D0BADDF0-5F8B-4343-B4D0-E9BD8FF16C72}"/>
+    <hyperlink ref="N17" r:id="rId11" xr:uid="{63DFF018-3C6A-429F-99FB-8DC2E1B85652}"/>
+    <hyperlink ref="N18" r:id="rId12" xr:uid="{ED3B1B6A-6DA7-4D01-BECC-71E30AC376EF}"/>
+    <hyperlink ref="N46" r:id="rId13" xr:uid="{B15C12E5-CDF2-43F1-B4DC-F52B4BD2C32F}"/>
+    <hyperlink ref="N58" r:id="rId14" xr:uid="{E100B4D0-0355-4207-8EC4-4A4435BF99A9}"/>
+    <hyperlink ref="N38:N39" r:id="rId15" display="Marco Calderoni und Opendata (WFS)" xr:uid="{E8F83467-722F-406B-8C6D-565320B053F6}"/>
+    <hyperlink ref="N42" r:id="rId16" xr:uid="{72B622D0-B388-414F-9BEC-288A6AAEAFB4}"/>
+    <hyperlink ref="N43" r:id="rId17" xr:uid="{D7442028-F5A5-4756-8984-595615E53B9D}"/>
+    <hyperlink ref="G40" r:id="rId18" xr:uid="{5FC75C3D-3509-4E0C-BE14-7042E5DA5CEC}"/>
+    <hyperlink ref="G36" r:id="rId19" xr:uid="{A0802882-5FF6-461C-8DEE-10756FF10B4C}"/>
+    <hyperlink ref="G41" r:id="rId20" xr:uid="{EA122736-F63C-498A-B4A4-2016104537E4}"/>
+    <hyperlink ref="H35" r:id="rId21" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{9E986CE8-629C-4AC8-8928-FA9C6B001058}"/>
+    <hyperlink ref="H36" r:id="rId22" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{6AA8816A-3EDB-445C-8C90-2A8298DB3450}"/>
+    <hyperlink ref="H37" r:id="rId23" display="https://geolion.zh.ch/geodatensatz/450" xr:uid="{46EBB936-2987-449F-8930-90DBB0CE48DB}"/>
+    <hyperlink ref="G37" r:id="rId24" xr:uid="{0FFC689C-CCFA-48C6-9DE4-5E4E98C897C7}"/>
+    <hyperlink ref="G35" r:id="rId25" xr:uid="{80412B88-A935-4A8B-814C-BA8485947427}"/>
+    <hyperlink ref="N47" r:id="rId26" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6356ABE9-ACA9-4A3C-B24F-441FEEF9A56C}"/>
+    <hyperlink ref="N48:N53" r:id="rId27" display="https://opendata.swiss/de/dataset/energiebilanz-der-schweiz" xr:uid="{6EA233B2-C086-4D0B-B3C8-4D7525095166}"/>
+    <hyperlink ref="G47" r:id="rId28" xr:uid="{CA72775A-7743-4664-B10D-E96514AB467D}"/>
+    <hyperlink ref="G48:G53" r:id="rId29" display="https://www.uvek-gis.admin.ch/BFE/ogd/115/" xr:uid="{E38C50CC-86BE-43C1-8B62-F4872BED6E0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
@@ -3550,7 +3562,7 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3567,7 +3579,7 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3581,13 +3593,13 @@
       <c r="C4" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>186</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3598,13 +3610,13 @@
       <c r="C5" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>186</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3621,7 +3633,7 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3638,7 +3650,7 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3655,7 +3667,7 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3672,7 +3684,7 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3689,7 +3701,7 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3706,7 +3718,7 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3726,7 +3738,7 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3743,7 +3755,7 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3760,78 +3772,78 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>215</v>
       </c>
       <c r="B19" t="s">
@@ -3846,43 +3858,43 @@
       <c r="E19" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
         <v>219</v>
       </c>
     </row>

--- a/5204_energie.xlsx
+++ b/5204_energie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAA2757\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142AD403-A847-41FE-BF6B-077C6AD6B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F87C77-2F15-47EE-A02F-ACEA0F301613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{762D4C5C-BBF7-4461-949E-EEA44E8F9082}"/>
   </bookViews>
@@ -851,10 +851,10 @@
     <t>bev_gem.csv</t>
   </si>
   <si>
-    <t>INDICATOR_Name</t>
-  </si>
-  <si>
     <t>Indikator W11 GEST</t>
+  </si>
+  <si>
+    <t>INDICATOR_NAME</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>2</v>
@@ -1940,7 +1940,7 @@
         <v>223</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>44</v>
@@ -3975,12 +3975,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4128,15 +4125,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75BE937-EBF6-4170-B538-1E8B2B85B134}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483E1CA-4503-4AF0-84CC-8A7B2CC91290}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4160,10 +4161,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483E1CA-4503-4AF0-84CC-8A7B2CC91290}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75BE937-EBF6-4170-B538-1E8B2B85B134}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/5204_energie.xlsx
+++ b/5204_energie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAA2757\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F87C77-2F15-47EE-A02F-ACEA0F301613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7A455-57B1-44A8-977E-C5473EF1865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{762D4C5C-BBF7-4461-949E-EEA44E8F9082}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Auswertungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primärdaten!$D$2:$O$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primärdaten!$D$2:$P$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="235">
   <si>
     <t>STATUS</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>INDICATOR_NAME</t>
+  </si>
+  <si>
+    <t>DEPENDENCY</t>
   </si>
 </sst>
 </file>
@@ -1390,11 +1393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB9810-378A-48AC-9E21-C59A3A4A45B2}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,10 +1412,10 @@
     <col min="10" max="11" width="23.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.7109375" customWidth="1"/>
+    <col min="14" max="15" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1455,8 +1458,11 @@
       <c r="N1" s="29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,11 +1491,12 @@
       <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1524,11 +1531,12 @@
       <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1559,11 +1567,12 @@
       <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1594,11 +1603,12 @@
       <c r="N5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1629,11 +1639,12 @@
       <c r="N6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1660,11 +1671,12 @@
       <c r="N7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1695,11 +1707,12 @@
       <c r="N8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1728,11 +1741,12 @@
       <c r="N9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="5"/>
+      <c r="P9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1761,11 +1775,12 @@
       <c r="N10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="5"/>
+      <c r="P10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1796,11 +1811,12 @@
       <c r="N11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1829,11 +1845,12 @@
       <c r="N12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="5"/>
+      <c r="P12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1862,11 +1879,12 @@
       <c r="N13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="5"/>
+      <c r="P13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1895,11 +1913,12 @@
       <c r="N14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="5"/>
+      <c r="P14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1928,11 +1947,12 @@
       <c r="N15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="5"/>
+      <c r="P15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1967,11 +1987,12 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="30"/>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2002,11 +2023,12 @@
       <c r="N17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="6"/>
+      <c r="P17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -2037,11 +2059,12 @@
       <c r="N18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="6"/>
+      <c r="P18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2072,11 +2095,12 @@
       <c r="N19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="7"/>
+      <c r="P19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2117,11 +2141,11 @@
       <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>2</v>
       </c>
@@ -2152,11 +2176,11 @@
       <c r="N21" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2183,11 +2207,12 @@
       <c r="N22" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -2218,11 +2243,12 @@
       <c r="N23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="5"/>
+      <c r="P23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -2253,11 +2279,12 @@
       <c r="N24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="5"/>
+      <c r="P24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>1</v>
       </c>
@@ -2288,11 +2315,12 @@
       <c r="N25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="11"/>
+      <c r="P25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2319,11 +2347,12 @@
       <c r="N26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="11"/>
+      <c r="P26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -2350,11 +2379,12 @@
       <c r="N27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="11"/>
+      <c r="P27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2387,11 +2417,12 @@
       <c r="N28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -2422,11 +2453,12 @@
       <c r="N29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -2457,11 +2489,12 @@
       <c r="N30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -2492,11 +2525,12 @@
       <c r="N31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -2527,11 +2561,12 @@
       <c r="N32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -2562,11 +2597,12 @@
       <c r="N33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2593,11 +2629,12 @@
       <c r="N34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -2634,11 +2671,12 @@
       <c r="N35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="5"/>
+      <c r="P35" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -2675,11 +2713,12 @@
       <c r="N36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="5"/>
+      <c r="P36" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -2716,11 +2755,12 @@
       <c r="N37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="5"/>
+      <c r="P37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2751,11 +2791,12 @@
       <c r="N38" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="12"/>
+      <c r="P38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2786,11 +2827,12 @@
       <c r="N39" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="12"/>
+      <c r="P39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -2823,11 +2865,12 @@
       <c r="N40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -2860,11 +2903,12 @@
       <c r="N41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>125</v>
       </c>
@@ -2893,11 +2937,12 @@
       <c r="N42" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="12"/>
+      <c r="P42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -2926,11 +2971,12 @@
       <c r="N43" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="12"/>
+      <c r="P43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -2959,11 +3005,12 @@
       <c r="N44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="5"/>
+      <c r="P44" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -2998,11 +3045,11 @@
       <c r="N45" t="s">
         <v>139</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -3029,9 +3076,10 @@
       <c r="N46" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="14"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -3066,11 +3114,12 @@
       <c r="N47" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O47" s="13" t="s">
+      <c r="O47" s="30"/>
+      <c r="P47" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -3105,11 +3154,12 @@
       <c r="N48" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="O48" s="30"/>
+      <c r="P48" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -3144,11 +3194,12 @@
       <c r="N49" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O49" s="13" t="s">
+      <c r="O49" s="30"/>
+      <c r="P49" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -3183,11 +3234,12 @@
       <c r="N50" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O50" s="13" t="s">
+      <c r="O50" s="30"/>
+      <c r="P50" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -3222,11 +3274,12 @@
       <c r="N51" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O51" s="13" t="s">
+      <c r="O51" s="30"/>
+      <c r="P51" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -3261,11 +3314,12 @@
       <c r="N52" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O52" s="13" t="s">
+      <c r="O52" s="30"/>
+      <c r="P52" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -3300,11 +3354,12 @@
       <c r="N53" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="O53" s="13" t="s">
+      <c r="O53" s="30"/>
+      <c r="P53" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -3333,11 +3388,12 @@
       <c r="N54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O54" s="13" t="s">
+      <c r="O54" s="5"/>
+      <c r="P54" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -3366,11 +3422,12 @@
       <c r="N55" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O55" s="13" t="s">
+      <c r="O55" s="5"/>
+      <c r="P55" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -3399,11 +3456,12 @@
       <c r="N56" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O56" s="15" t="s">
+      <c r="O56" s="4"/>
+      <c r="P56" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -3432,9 +3490,10 @@
       <c r="N57" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="5"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -3463,9 +3522,10 @@
       <c r="N58" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="27"/>
+      <c r="P58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>1</v>
       </c>
@@ -3975,9 +4035,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4125,19 +4188,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483E1CA-4503-4AF0-84CC-8A7B2CC91290}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75BE937-EBF6-4170-B538-1E8B2B85B134}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4161,9 +4220,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75BE937-EBF6-4170-B538-1E8B2B85B134}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483E1CA-4503-4AF0-84CC-8A7B2CC91290}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>